--- a/交流管理/项目日报/工作日志模板.xlsx
+++ b/交流管理/项目日报/工作日志模板.xlsx
@@ -273,11 +273,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -286,15 +286,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="10"/>
-          <bgColor indexed="55"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -356,38 +348,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="10"/>
           <bgColor indexed="55"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="10"/>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="10"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="10"/>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="10"/>
-          <bgColor indexed="22"/>
         </patternFill>
       </fill>
     </dxf>
@@ -732,14 +692,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25">
@@ -767,12 +728,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="22.5">
       <c r="A4" s="4" t="s">
@@ -1171,40 +1132,40 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="C6 C29:F35">
-    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="4" stopIfTrue="1">
       <formula>(N(WEEKDAY($A6,2))&gt;5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
       <formula>(N(WEEKDAY($A6,2))&gt;5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
       <formula>(N(WEEKDAY($A7,2))&gt;5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
       <formula>(N(WEEKDAY($A27,2))&gt;5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B35">
-    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
       <formula>(N(WEEKDAY($A6,2))&gt;5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
       <formula>(N(WEEKDAY($A6,2))&lt;6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:F6 D7:F7 C27 E27:F27 D28:F28 C8:F26">
-    <cfRule type="expression" dxfId="2" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
       <formula>(N(WEEKDAY($A6,2))&gt;5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>(N(WEEKDAY($A28,2))&gt;5)</formula>
     </cfRule>
   </conditionalFormatting>
